--- a/113306006_mis_許祐寧.xlsx
+++ b/113306006_mis_許祐寧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\計概TA\1011\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E71D5AD-7738-440F-B6EB-CB38D6E1B778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3AF23E-230D-4EBD-B7D8-4B858D23D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -215,6 +204,14 @@
       </rPr>
       <t>ò</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +304,28 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -320,10 +338,1852 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6898-46E8-9A10-4C79F20F94E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6898-46E8-9A10-4C79F20F94E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>pass</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6898-46E8-9A10-4C79F20F94E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-TW"/>
+                      <a:t>fail</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6898-46E8-9A10-4C79F20F94E2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$L$17:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6898-46E8-9A10-4C79F20F94E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>students' overall scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$B$2:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>何大美</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>陳慢慢</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>黃阿坤</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>李大仁</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>陳小奇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>羅小花</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>李小君</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>李大輝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白阿國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>王小明</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>李大月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>林大義</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>宋小倫</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>許亮亮</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>91.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A983-4293-A026-6977B26395FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="743735088"/>
+        <c:axId val="792215728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="743735088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792215728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792215728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="743735088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38474</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>194235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A612B842-A3C7-4CD9-2BC7-033BCE7AE082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>202046</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>199737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AB505B-1242-2168-3C85-BB1A2A6A6CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,7 +2221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -467,7 +2327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,7 +2469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,18 +2477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,9 +2552,24 @@
       <c r="G2" s="1">
         <v>95</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <f>AVERAGE(C2:G2)</f>
+        <v>94.4</v>
+      </c>
       <c r="I2" s="1">
         <v>89</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(H2:I2)</f>
+        <v>91.7</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K4" si="0">_xlfn.IFS(J2&gt;=90,"A",J2&gt;=80,"B",J2&gt;=70,"C",J2&gt;=60,"D",J2&lt;60,"F")</f>
+        <v>A</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L15" si="1">IF(J2&gt;=60,"pass","fail")</f>
+        <v>pass</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -719,9 +2594,24 @@
       <c r="G3" s="1">
         <v>85</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <f>AVERAGE(C3:G3)</f>
+        <v>86</v>
+      </c>
       <c r="I3" s="1">
         <v>94</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J15" si="2">AVERAGE(H3:I3)</f>
+        <v>90</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -746,9 +2636,24 @@
       <c r="G4" s="1">
         <v>85</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H15" si="3">AVERAGE(C4:G4)</f>
+        <v>82.4</v>
+      </c>
       <c r="I4" s="1">
         <v>80</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>81.2</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -773,9 +2678,24 @@
       <c r="G5" s="1">
         <v>95</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
+        <v>81.599999999999994</v>
+      </c>
       <c r="I5" s="1">
         <v>80</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>80.8</v>
+      </c>
+      <c r="K5" t="str">
+        <f>_xlfn.IFS(J5&gt;=90,"A",J5&gt;=80,"B",J5&gt;=70,"C",J5&gt;=60,"D",J5&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -800,9 +2720,24 @@
       <c r="G6" s="1">
         <v>73</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
+        <v>81.400000000000006</v>
+      </c>
       <c r="I6" s="1">
         <v>88</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>84.7</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" ref="K6:K15" si="4">_xlfn.IFS(J6&gt;=90,"A",J6&gt;=80,"B",J6&gt;=70,"C",J6&gt;=60,"D",J6&lt;60,"F")</f>
+        <v>B</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -827,9 +2762,24 @@
       <c r="G7" s="1">
         <v>80</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>80.599999999999994</v>
+      </c>
       <c r="I7" s="1">
         <v>81</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>80.8</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -854,9 +2804,24 @@
       <c r="G8" s="1">
         <v>89</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>78.8</v>
+      </c>
       <c r="I8" s="1">
         <v>77</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -881,9 +2846,24 @@
       <c r="G9" s="1">
         <v>47</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>75.400000000000006</v>
+      </c>
       <c r="I9" s="1">
         <v>73</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>74.2</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -908,9 +2888,24 @@
       <c r="G10" s="1">
         <v>97</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
+        <v>73.400000000000006</v>
+      </c>
       <c r="I10" s="1">
         <v>77</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>75.2</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -935,9 +2930,24 @@
       <c r="G11" s="1">
         <v>67</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
+        <v>73.2</v>
+      </c>
       <c r="I11" s="1">
         <v>82</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -962,9 +2972,24 @@
       <c r="G12" s="1">
         <v>82</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>73.2</v>
+      </c>
       <c r="I12" s="1">
         <v>88</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -989,9 +3014,24 @@
       <c r="G13" s="1">
         <v>92</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
       <c r="I13" s="1">
         <v>52</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1016,9 +3056,24 @@
       <c r="G14" s="1">
         <v>79</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>64.8</v>
+      </c>
       <c r="I14" s="1">
         <v>69</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>D</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>pass</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1043,9 +3098,24 @@
       <c r="G15" s="1">
         <v>34</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>57.2</v>
+      </c>
       <c r="I15" s="1">
         <v>54</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>55.6</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>fail</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1065,13 +3135,116 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="10:10">
+    <row r="17" spans="3:13">
+      <c r="C17">
+        <f>MAX(C2:C15)</f>
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <f>LARGE(D2:D15,2)</f>
+        <v>92</v>
+      </c>
+      <c r="H17" s="1">
+        <f>COUNTIF(H2:H15,"&lt;80")</f>
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <f>AVERAGE(J2:J15)</f>
+        <v>76.871428571428581</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIF(L2:L15,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="L18">
+        <f>COUNTIF(L2:L15,"fail")</f>
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
       <c r="J24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EC8ECE6D-7B47-4A6A-98AC-EA5F1339146D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L6">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04ADBA7A-88CE-464D-8150-4DC8FA986ED8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EC8ECE6D-7B47-4A6A-98AC-EA5F1339146D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L2:L15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04ADBA7A-88CE-464D-8150-4DC8FA986ED8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L5:L6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/113306006_mis_許祐寧.xlsx
+++ b/113306006_mis_許祐寧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3AF23E-230D-4EBD-B7D8-4B858D23D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34C7C1E-1B8D-4C86-8B20-50EF6185FBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -207,12 +207,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>fail</t>
+  </si>
+  <si>
     <t>pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,21 +305,21 @@
   <dxfs count="2">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -339,305 +337,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6898-46E8-9A10-4C79F20F94E2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6898-46E8-9A10-4C79F20F94E2}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW"/>
-                      <a:t>pass</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-6898-46E8-9A10-4C79F20F94E2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="zh-TW"/>
-                      <a:t>fail</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-6898-46E8-9A10-4C79F20F94E2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$L$17:$L$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6898-46E8-9A10-4C79F20F94E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1001,6 +700,187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>工作表1!$L$17:$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>pass</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$M$17:$M$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E805-45AF-A9EA-5166CD8D9E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1082,7 +962,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1139,7 +1019,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1190,13 +1070,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1207,19 +1080,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1257,7 +1123,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1300,23 +1166,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1421,8 +1286,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1554,20 +1419,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1601,7 +1465,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1658,7 +1522,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1709,6 +1573,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1719,12 +1590,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1762,7 +1640,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1805,22 +1683,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1925,8 +1804,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2058,19 +1937,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2107,23 +1987,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590924</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41088</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>202046</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38474</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>194235</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>51955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>199737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4">
+        <xdr:cNvPr id="8" name="圖表 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A612B842-A3C7-4CD9-2BC7-033BCE7AE082}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AB505B-1242-2168-3C85-BB1A2A6A6CE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,23 +2023,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>202046</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>806824</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>199737</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7">
+        <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AB505B-1242-2168-3C85-BB1A2A6A6CE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51EDE3F-3622-0BCC-03AA-3A6036E6FAF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="I10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3152,21 +3032,21 @@
         <f>AVERAGE(J2:J15)</f>
         <v>76.871428571428581</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17">
         <f>COUNTIF(L2:L15,"pass")</f>
         <v>12</v>
       </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="18" spans="3:13">
-      <c r="L18">
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18">
         <f>COUNTIF(L2:L15,"fail")</f>
         <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:13">
@@ -3177,6 +3057,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="L2:L15">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"pass"</formula>
+    </cfRule>
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -3202,16 +3088,6 @@
           <x14:id>{04ADBA7A-88CE-464D-8150-4DC8FA986ED8}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"pass"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
